--- a/Results/graphs.xlsx
+++ b/Results/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinzi\OneDrive\Desktop\Airbnb Data Challenge\Airbnb-Data-Challenge\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF4E7D-0B44-476B-94DB-8BB76AE7C209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C4D36-B1EB-4829-8CCC-6A401781F6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-570" yWindow="240" windowWidth="27480" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="585" windowWidth="27480" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22477,8 +22477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
